--- a/medicine/Mort/Ossuaire_du_cimetière_de_Crac'h/Ossuaire_du_cimetière_de_Crac'h.xlsx
+++ b/medicine/Mort/Ossuaire_du_cimetière_de_Crac'h/Ossuaire_du_cimetière_de_Crac'h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ossuaire_du_cimeti%C3%A8re_de_Crac%27h</t>
+          <t>Ossuaire_du_cimetière_de_Crac'h</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossuaire du cimetière de Crach (ou ossuaire de Crach) est un ossuaire situé dans la commune de Crach, dans le Morbihan, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ossuaire_du_cimeti%C3%A8re_de_Crac%27h</t>
+          <t>Ossuaire_du_cimetière_de_Crac'h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossuaire est situé à l'angle sud-ouest du cimetière communal, lui-même situé rue du Stade. Il s'appuie sur le mur occidental pour sa plus grande longueur.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ossuaire_du_cimeti%C3%A8re_de_Crac%27h</t>
+          <t>Ossuaire_du_cimetière_de_Crac'h</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossuaire est probablement bâti à la fin du XIXe siècle, avant 1891, année où l'ossuaire adossé à l'église paroissiale est déménagé vers celui du cimetière[1],[2].
-L'ossuaire fait l'objet d'une inscription au titre des monuments historiques par arrêté du 18 mai 1925[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossuaire est probablement bâti à la fin du XIXe siècle, avant 1891, année où l'ossuaire adossé à l'église paroissiale est déménagé vers celui du cimetière,.
+L'ossuaire fait l'objet d'une inscription au titre des monuments historiques par arrêté du 18 mai 1925.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ossuaire_du_cimeti%C3%A8re_de_Crac%27h</t>
+          <t>Ossuaire_du_cimetière_de_Crac'h</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossuaire se présente comme un édicule disposé en appentis[2] contre le mur occidental. Sa façade orientale est complètement ajourée : un larmier s'appuie sur une série de balustres qui reposent elles-mêmes sur un muret à corniche[2]. Saillant du toit, le pilier central porte le relief d'un crâne et de tibias croisés[2], représentant la mort[2], que surmonte une croix[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossuaire se présente comme un édicule disposé en appentis contre le mur occidental. Sa façade orientale est complètement ajourée : un larmier s'appuie sur une série de balustres qui reposent elles-mêmes sur un muret à corniche. Saillant du toit, le pilier central porte le relief d'un crâne et de tibias croisés, représentant la mort, que surmonte une croix.
 </t>
         </is>
       </c>
